--- a/Andrew-annotations/VICL_Q2_2010.xlsx
+++ b/Andrew-annotations/VICL_Q2_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758761D9-D428-43D6-B5A4-74BEACD3D780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAD3D2-B07B-4B59-A004-80DD0C5E5AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3255" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -699,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -766,16 +766,16 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -862,16 +862,16 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -894,16 +894,16 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -926,16 +926,16 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -955,22 +955,22 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -993,13 +993,13 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1051,10 +1051,10 @@
         <v>45</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1089,13 +1089,13 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
